--- a/biology/Médecine/William_Sharpey/William_Sharpey.xlsx
+++ b/biology/Médecine/William_Sharpey/William_Sharpey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Sharpey (1802–1880) était un anatomiste et physiologiste écossais.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Sharpey était un correspondant et un ami de Charles Darwin. Il contribua aux nombreuses éditions du Quain’s Anatomy et était l'un des secrétaires de la Royal Society. Il était également membre de la Commission de l’Instruction Scientifique et de l’Avancement de la Science, du Sénat de l’Université de Londres et de la Geological Society. En 1874, William Sharpey obtint une retraite de fonctionnaire de la part du gouvernement britannique.
 </t>
@@ -542,7 +556,9 @@
           <t>Terme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Fibres de Sharpey : fibre qui tient le tissu osseux lamellaire (W. Sharpey, 1846). »
 Dorland's Medical Dictionary (1938)</t>
